--- a/Base/Teams/Patriots/2021 Team Data.xlsx
+++ b/Base/Teams/Patriots/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14</t>
-  </si>
-  <si>
-    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7</t>
-  </si>
-  <si>
-    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1</t>
-  </si>
-  <si>
-    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14</t>
+    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2</t>
+  </si>
+  <si>
+    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7</t>
+  </si>
+  <si>
+    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1</t>
+  </si>
+  <si>
+    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63</t>
-  </si>
-  <si>
-    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16</t>
+    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56</t>
+  </si>
+  <si>
+    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27</t>
   </si>
   <si>
     <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37</t>
   </si>
   <si>
-    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48</t>
-  </si>
-  <si>
-    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0</t>
-  </si>
-  <si>
-    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8</t>
+    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71</t>
+  </si>
+  <si>
+    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
       <c r="J2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,10 +704,10 @@
         <v>10</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2">
         <v>431</v>
@@ -721,13 +721,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>66</v>
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>37</v>
@@ -748,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="L3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>303</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>144</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>11</v>
@@ -996,37 +996,37 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
         <v>24</v>
       </c>
-      <c r="F3">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
       <c r="I3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M3">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,22 +1233,22 @@
         <v>413</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/2021 Team Data.xlsx
+++ b/Base/Teams/Patriots/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2</t>
-  </si>
-  <si>
-    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7</t>
-  </si>
-  <si>
-    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1</t>
-  </si>
-  <si>
-    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6</t>
+    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2</t>
+  </si>
+  <si>
+    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16</t>
+  </si>
+  <si>
+    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67</t>
+  </si>
+  <si>
+    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56</t>
-  </si>
-  <si>
-    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27</t>
-  </si>
-  <si>
-    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37</t>
-  </si>
-  <si>
-    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71</t>
-  </si>
-  <si>
-    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0</t>
+    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54</t>
+  </si>
+  <si>
+    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20</t>
+  </si>
+  <si>
+    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20</t>
+  </si>
+  <si>
+    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34</t>
+  </si>
+  <si>
+    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>181</v>
       </c>
       <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
         <v>10</v>
       </c>
-      <c r="O2">
-        <v>7</v>
-      </c>
       <c r="P2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
         <v>431</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="M3">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>352</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -952,19 +952,19 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>144</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>444</v>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1005,28 +1005,28 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>24</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>347</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L2">
         <v>119</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/2021 Team Data.xlsx
+++ b/Base/Teams/Patriots/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2</t>
-  </si>
-  <si>
-    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16</t>
-  </si>
-  <si>
-    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67</t>
-  </si>
-  <si>
-    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19</t>
+    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3</t>
+  </si>
+  <si>
+    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21</t>
+  </si>
+  <si>
+    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5</t>
+  </si>
+  <si>
+    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,19 +161,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54</t>
-  </si>
-  <si>
-    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20</t>
-  </si>
-  <si>
-    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20</t>
-  </si>
-  <si>
-    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34</t>
-  </si>
-  <si>
-    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0</t>
+    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62</t>
+  </si>
+  <si>
+    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31</t>
+  </si>
+  <si>
+    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17</t>
+  </si>
+  <si>
+    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63</t>
+  </si>
+  <si>
+    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15</t>
   </si>
   <si>
     <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,28 +689,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="N2">
         <v>11</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>431</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>21</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>126</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -964,28 +964,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="M2">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="N2">
         <v>18</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>444</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/2021 Team Data.xlsx
+++ b/Base/Teams/Patriots/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3</t>
-  </si>
-  <si>
-    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21</t>
-  </si>
-  <si>
-    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5</t>
-  </si>
-  <si>
-    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2</t>
+    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8</t>
+  </si>
+  <si>
+    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9</t>
+  </si>
+  <si>
+    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7</t>
+  </si>
+  <si>
+    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62</t>
-  </si>
-  <si>
-    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31</t>
-  </si>
-  <si>
-    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17</t>
-  </si>
-  <si>
-    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63</t>
-  </si>
-  <si>
-    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15</t>
-  </si>
-  <si>
-    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0</t>
+    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62 67 61 62 60 61</t>
+  </si>
+  <si>
+    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31 25 18 16 9 20</t>
+  </si>
+  <si>
+    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17 14 27 9</t>
+  </si>
+  <si>
+    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63 40</t>
+  </si>
+  <si>
+    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15 3</t>
+  </si>
+  <si>
+    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="N2">
         <v>11</v>
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>493</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -943,25 +943,25 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>31</v>
@@ -970,10 +970,10 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M2">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="N2">
         <v>18</v>
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="Q2">
-        <v>520</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>55</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>115</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,25 +1215,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -1245,10 +1245,10 @@
         <v>199</v>
       </c>
       <c r="L2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/2021 Team Data.xlsx
+++ b/Base/Teams/Patriots/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8</t>
-  </si>
-  <si>
-    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9</t>
-  </si>
-  <si>
-    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7</t>
-  </si>
-  <si>
-    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28</t>
+    <t>35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8 3 6 7 -1 8 4 15 -1 3 5 1 7 12 9 2 4 6 19 0 4 4 6 5 -1 2 4 1 2 1 16 5 2 2 3 2 3 14 14 0 0 1 8 2 7 1 5 1</t>
+  </si>
+  <si>
+    <t>4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9 2 5 35 7 5 13 23 17 6 2 28 6 32 5 1 18 39 11 8 9 30 4 12 10 2 5 8 7 10 7 1 43 4 7 15 3 6 2 18</t>
+  </si>
+  <si>
+    <t>2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7 4 2 5 4 3 0 7 5 2 1 10 6 5 3 1 3 3 11 9 1 27 7 3 5 1 3 1 4 3 2 2 23 4 -1 5 2 -2 4 11 3 2 0 4 26 15 1 7 6 5 9 3 8 2 4 9 1 3 9 16 2 15 10 1 3 7 6 4 0</t>
+  </si>
+  <si>
+    <t>17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28 9 4 5 13 7 9 7 17 4 3 5 9 2 0 15 9 0 7 8 24 2 19 6 11 22 19 45 4 9 4 34 8 19 19 38 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62 67 61 62 60 61</t>
-  </si>
-  <si>
-    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31 25 18 16 9 20</t>
-  </si>
-  <si>
-    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17 14 27 9</t>
-  </si>
-  <si>
-    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63 40</t>
-  </si>
-  <si>
-    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15 3</t>
-  </si>
-  <si>
-    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0 0 0 0 0</t>
+    <t>54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62 67 61 62 60 61 62 62 50 58 57 42</t>
+  </si>
+  <si>
+    <t>0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31 25 18 16 9 20 20 18 15 5 15 0</t>
+  </si>
+  <si>
+    <t>17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17 14 27 9 24 15 16 21 25 26</t>
+  </si>
+  <si>
+    <t>37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63 40 46 45 47 47 42 53</t>
+  </si>
+  <si>
+    <t>0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15 3 0 0 0 0 2 52</t>
+  </si>
+  <si>
+    <t>7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0 0 0 0 0 11 0 9 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>220</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>561</v>
@@ -721,37 +721,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="M3">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>423</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>191</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>17</v>
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1005,28 +1005,28 @@
         <v>28</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3">
+        <v>57</v>
+      </c>
+      <c r="J3">
         <v>55</v>
-      </c>
-      <c r="J3">
-        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="M3">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>398</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1245,10 +1245,10 @@
         <v>199</v>
       </c>
       <c r="L2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
